--- a/Frontend-medicare_booking_app/src/assets/template/AccountManage.xlsx
+++ b/Frontend-medicare_booking_app/src/assets/template/AccountManage.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Lap Trinh\VS_Code\.vscode\Application\Medicare_booking_app\Frontend-medicare_booking_app\src\assets\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09A5E11A-E601-421D-9BBC-74E9DC5AD0F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD6738D6-9CCF-4655-B9CD-2767982A8FEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{2FF5286D-3A92-47D5-824A-895CD34D3EF0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{2FF5286D-3A92-47D5-824A-895CD34D3EF0}"/>
   </bookViews>
   <sheets>
     <sheet name="Macro1" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>password</t>
   </si>
@@ -46,9 +46,6 @@
     <t>userType</t>
   </si>
   <si>
-    <t>hunghaha@gmail.com</t>
-  </si>
-  <si>
     <t>Nth150603</t>
   </si>
   <si>
@@ -58,12 +55,6 @@
     <t>email</t>
   </si>
   <si>
-    <t>Nth150604</t>
-  </si>
-  <si>
-    <t>hahahuhung@gmail.com</t>
-  </si>
-  <si>
     <t>fullName</t>
   </si>
   <si>
@@ -97,19 +88,19 @@
     <t>Approved</t>
   </si>
   <si>
-    <t>Male</t>
-  </si>
-  <si>
-    <t>hunghaha</t>
-  </si>
-  <si>
-    <t>hahahuhung</t>
-  </si>
-  <si>
-    <t>huhuhuhuhu</t>
-  </si>
-  <si>
-    <t>GS</t>
+    <t>levantruong@gmail.com</t>
+  </si>
+  <si>
+    <t>Lê Văn Trường</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PGS, TS. Lê Văn Trường là một bác sĩ tim mạch quân y, hiện đang giữ chức vụ Trưởng khoa Chẩn đoán hình ảnh và Can thiệp Tim mạch, đồng thời là Viện trưởng Viện Tim mạch của Bệnh viện Trung ương Quân đội 108. Ông đã tốt nghiệp Học viện Quân y và có nhiều đóng góp trong lĩnh vực chẩn đoán và điều trị các bệnh tim mạch phức tạp. </t>
+  </si>
+  <si>
+    <t>PGS</t>
+  </si>
+  <si>
+    <t>Female</t>
   </si>
 </sst>
 </file>
@@ -487,7 +478,7 @@
   <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -506,7 +497,7 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -515,124 +506,85 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>9</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>10</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
         <v>11</v>
       </c>
-      <c r="H1" t="s">
+      <c r="K1" t="s">
         <v>12</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L1" t="s">
         <v>13</v>
       </c>
-      <c r="J1" t="s">
+      <c r="M1" t="s">
         <v>14</v>
-      </c>
-      <c r="K1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L1" t="s">
-        <v>16</v>
-      </c>
-      <c r="M1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2">
+        <v>6</v>
+      </c>
+      <c r="F2">
         <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
       </c>
       <c r="G2">
         <v>1234556789</v>
       </c>
       <c r="H2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I2">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="J2">
-        <v>100000</v>
+        <v>500000</v>
       </c>
       <c r="K2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="L2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="M2" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>1234556789</v>
-      </c>
-      <c r="H3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3">
-        <v>10</v>
-      </c>
-      <c r="J3">
-        <v>100000</v>
-      </c>
-      <c r="K3" t="s">
-        <v>23</v>
-      </c>
-      <c r="L3" t="s">
-        <v>19</v>
-      </c>
-      <c r="M3" t="s">
-        <v>18</v>
-      </c>
+      <c r="A3" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{1345505D-793A-4877-B286-090339247E5A}"/>
-    <hyperlink ref="A3" r:id="rId2" xr:uid="{DC21C44F-3D30-4648-8BE2-8407AC2845EE}"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{777C5FD0-19D4-4A59-A6E6-A7056FBFD9F2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>